--- a/record_actual.xlsx
+++ b/record_actual.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,11 +375,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>date</t>
         </is>
       </c>
@@ -400,7 +395,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>4/19/2025</t>
         </is>
@@ -414,7 +409,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRIAR</t>
+          <t>Briar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -422,7 +417,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>4/22/2025</t>
         </is>
@@ -436,7 +431,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GP_WOODS</t>
+          <t>GP_woods</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -444,7 +439,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>4/23/2025</t>
         </is>
@@ -466,7 +461,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>4/26/2025</t>
         </is>
@@ -488,7 +483,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>4/28/2025</t>
         </is>
@@ -510,7 +505,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>5/1/2025</t>
         </is>
@@ -532,7 +527,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>5/5/2025</t>
         </is>
@@ -554,7 +549,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>5/7/2025</t>
         </is>
@@ -576,7 +571,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>5/9/2025</t>
         </is>
@@ -598,7 +593,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>5/11/2025</t>
         </is>
@@ -620,7 +615,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>5/14/2025</t>
         </is>
@@ -642,7 +637,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>5/30/2025</t>
         </is>
@@ -664,7 +659,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
@@ -686,7 +681,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>6/3/2025</t>
         </is>
@@ -708,7 +703,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>6/11/2025</t>
         </is>
@@ -730,7 +725,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>6/13/2025</t>
         </is>
@@ -752,7 +747,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>6/16/2025</t>
         </is>
@@ -774,7 +769,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>6/28/2025</t>
         </is>
@@ -796,7 +791,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>7/1/2025</t>
         </is>
@@ -818,7 +813,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>7/2/2025</t>
         </is>
@@ -840,7 +835,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>7/6/2025</t>
         </is>
@@ -862,7 +857,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>7/12/2025</t>
         </is>
@@ -884,7 +879,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>7/16/2025</t>
         </is>
@@ -906,7 +901,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>7/18/2025</t>
         </is>
@@ -928,7 +923,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>7/20/2025</t>
         </is>
@@ -950,7 +945,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>7/22/2025</t>
         </is>
@@ -972,7 +967,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>7/26/2025</t>
         </is>
@@ -994,7 +989,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>7/28/2025</t>
         </is>
@@ -1016,7 +1011,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>7/30/2025</t>
         </is>
@@ -1038,7 +1033,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>8/8/2025</t>
         </is>
@@ -1060,7 +1055,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>8/9/2025</t>
         </is>
@@ -1082,7 +1077,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>8/10/2025</t>
         </is>
@@ -1104,7 +1099,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>8/13/2025</t>
         </is>
@@ -1126,7 +1121,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>8/22/2025</t>
         </is>
@@ -1148,7 +1143,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>8/27/2025</t>
         </is>
@@ -1170,7 +1165,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>8/29/2025</t>
         </is>
@@ -1192,7 +1187,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>9/2/2025</t>
         </is>
@@ -1206,7 +1201,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLAINS_WET</t>
+          <t>plains_wet</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1214,7 +1209,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>9/6/2025</t>
         </is>
@@ -1228,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LONG_MEADOW</t>
+          <t>long_meadow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1236,7 +1231,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>9/12/2025</t>
         </is>
@@ -1258,7 +1253,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>9/16/2025</t>
         </is>
@@ -1280,7 +1275,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>9/18/2025</t>
         </is>
@@ -1302,7 +1297,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>9/24/2025</t>
         </is>
@@ -1324,7 +1319,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>9/25/2025</t>
         </is>
@@ -1346,7 +1341,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>9/27/2025</t>
         </is>
@@ -1368,7 +1363,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>9/28/2025</t>
         </is>
@@ -1390,7 +1385,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>9/29/2025</t>
         </is>
@@ -1412,7 +1407,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>9/30/2025</t>
         </is>
@@ -1434,7 +1429,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>10/3/2025</t>
         </is>
@@ -1456,7 +1451,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>10/6/2025</t>
         </is>
@@ -1478,7 +1473,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>10/9/2025</t>
         </is>
@@ -1500,7 +1495,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>10/23/2025</t>
         </is>
@@ -1522,7 +1517,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>10/27/2025</t>
         </is>
@@ -1544,7 +1539,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>10/29/2025</t>
         </is>
@@ -1566,7 +1561,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>10/30/2025</t>
         </is>
@@ -1588,7 +1583,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>11/4/2025</t>
         </is>
@@ -1610,7 +1605,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>11/9/2025</t>
         </is>
@@ -1624,7 +1619,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LEOS</t>
+          <t>leos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1632,7 +1627,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>11/14/2025</t>
         </is>
@@ -1646,7 +1641,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PLAYGROUND</t>
+          <t>playground</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1654,7 +1649,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>11/25/2025</t>
         </is>
@@ -1676,7 +1671,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>11/30/2025</t>
         </is>
@@ -1707,7 +1702,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1715,7 +1710,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>5/3/2025</t>
         </is>
@@ -1729,7 +1724,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1737,7 +1732,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>5/6/2025</t>
         </is>
@@ -1751,7 +1746,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LOWER_SUNSET</t>
+          <t>lower_sunset</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1759,7 +1754,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>5/10/2025</t>
         </is>
@@ -1773,7 +1768,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1781,7 +1776,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>5/11/2025</t>
         </is>
@@ -1795,7 +1790,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1803,7 +1798,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>5/20/2025</t>
         </is>
@@ -1817,7 +1812,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1825,7 +1820,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>5/23/2025</t>
         </is>
@@ -1839,7 +1834,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1847,7 +1842,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>5/27/2025</t>
         </is>
@@ -1861,7 +1856,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1869,7 +1864,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>5/30/2025</t>
         </is>
@@ -1883,7 +1878,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1891,7 +1886,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>6/10/2025</t>
         </is>
@@ -1905,7 +1900,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1913,7 +1908,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>6/13/2025</t>
         </is>
@@ -1927,7 +1922,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LOWER_UNDERHILL</t>
+          <t>lower_underhill</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1935,7 +1930,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>6/16/2025</t>
         </is>
@@ -1949,7 +1944,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1957,7 +1952,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>6/19/2025</t>
         </is>
@@ -1971,7 +1966,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1979,7 +1974,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>6/25/2025</t>
         </is>
@@ -1993,7 +1988,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2001,7 +1996,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>6/28/2025</t>
         </is>
@@ -2015,7 +2010,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2023,7 +2018,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>7/7/2025</t>
         </is>
@@ -2037,7 +2032,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2045,7 +2040,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>7/10/2025</t>
         </is>
@@ -2059,7 +2054,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2067,7 +2062,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>7/13/2025</t>
         </is>
@@ -2081,7 +2076,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2089,7 +2084,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>7/16/2025</t>
         </is>
@@ -2103,7 +2098,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2111,7 +2106,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>7/30/2025</t>
         </is>
@@ -2125,7 +2120,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LOWER_UNDERHILL</t>
+          <t>lower_underhill</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2133,7 +2128,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>8/3/2025</t>
         </is>
@@ -2147,7 +2142,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2155,7 +2150,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>8/6/2025</t>
         </is>
@@ -2169,7 +2164,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>UNDERHILL</t>
+          <t>underhill</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2177,7 +2172,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>8/16/2025</t>
         </is>
@@ -2191,7 +2186,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BARBERRY_WOODS</t>
+          <t>barberry_woods</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2199,7 +2194,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>8/18/2025</t>
         </is>
@@ -2213,7 +2208,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BULL</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2221,7 +2216,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>8/21/2025</t>
         </is>
@@ -2235,7 +2230,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2243,7 +2238,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>8/24/2025</t>
         </is>
@@ -2257,7 +2252,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2265,7 +2260,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>8/28/2025</t>
         </is>
@@ -2279,7 +2274,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2287,7 +2282,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>9/2/2025</t>
         </is>
@@ -2301,7 +2296,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2309,7 +2304,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>9/8/2025</t>
         </is>
@@ -2323,7 +2318,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2331,7 +2326,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>9/10/2025</t>
         </is>
@@ -2345,7 +2340,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2353,7 +2348,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>9/13/2025</t>
         </is>
@@ -2367,7 +2362,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRIANGLE_UPPER</t>
+          <t>triangle_upper</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2375,7 +2370,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>9/17/2025</t>
         </is>
@@ -2389,7 +2384,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2397,7 +2392,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>9/19/2025</t>
         </is>
@@ -2411,7 +2406,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BRIAR</t>
+          <t>briar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2419,7 +2414,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>10/3/2025</t>
         </is>
@@ -2433,7 +2428,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2441,7 +2436,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>10/13/2025</t>
         </is>
@@ -2455,7 +2450,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2463,7 +2458,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>10/16/2025</t>
         </is>
@@ -2477,7 +2472,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BARBERRY_WOODS</t>
+          <t>barberry_woods</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2485,7 +2480,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>10/19/2025</t>
         </is>
@@ -2499,7 +2494,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>WILSON</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2507,7 +2502,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>10/25/2025</t>
         </is>
@@ -2521,7 +2516,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>UNDERHILL</t>
+          <t>underhill</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2529,7 +2524,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>10/30/2025</t>
         </is>
@@ -2543,7 +2538,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>UNDERHILL_WET</t>
+          <t>underhill_wet</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2551,7 +2546,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>11/6/2025</t>
         </is>
@@ -2565,7 +2560,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BULL</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2573,7 +2568,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>11/11/2025</t>
         </is>
@@ -2587,7 +2582,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2595,7 +2590,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>11/14/2025</t>
         </is>
@@ -2609,7 +2604,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LOWER_SUNSET</t>
+          <t>lower_sunset</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2617,7 +2612,7 @@
           <t>day_out</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>11/21/2025</t>
         </is>
@@ -2631,7 +2626,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>WILLIAMS_WEST</t>
+          <t>williams_west</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2656,10 +2651,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D105">
-        <v>4</v>
-      </c>
-      <c r="E105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>4/15/2025</t>
         </is>
@@ -2673,7 +2665,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BRIAR</t>
+          <t>Briar</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2681,10 +2673,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>4/19/2025</t>
         </is>
@@ -2698,7 +2687,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GP_WOODS</t>
+          <t>GP_woods</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2706,10 +2695,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>4/22/2025</t>
         </is>
@@ -2731,10 +2717,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>4/23/2025</t>
         </is>
@@ -2756,10 +2739,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>4/26/2025</t>
         </is>
@@ -2781,10 +2761,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>4/28/2025</t>
         </is>
@@ -2806,10 +2783,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D111">
-        <v>4</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>5/1/2025</t>
         </is>
@@ -2831,10 +2805,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>5/5/2025</t>
         </is>
@@ -2856,10 +2827,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>5/7/2025</t>
         </is>
@@ -2881,10 +2849,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>5/9/2025</t>
         </is>
@@ -2906,10 +2871,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>5/11/2025</t>
         </is>
@@ -2931,10 +2893,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D116">
-        <v>16</v>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>5/14/2025</t>
         </is>
@@ -2956,10 +2915,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>5/30/2025</t>
         </is>
@@ -2981,10 +2937,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
@@ -3006,10 +2959,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D119">
-        <v>8</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>6/3/2025</t>
         </is>
@@ -3031,10 +2981,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>6/11/2025</t>
         </is>
@@ -3056,10 +3003,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D121">
-        <v>3</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>6/13/2025</t>
         </is>
@@ -3081,10 +3025,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D122">
-        <v>12</v>
-      </c>
-      <c r="E122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>6/16/2025</t>
         </is>
@@ -3106,10 +3047,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>6/28/2025</t>
         </is>
@@ -3131,10 +3069,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>7/1/2025</t>
         </is>
@@ -3156,10 +3091,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>7/2/2025</t>
         </is>
@@ -3181,10 +3113,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D126">
-        <v>6</v>
-      </c>
-      <c r="E126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>7/6/2025</t>
         </is>
@@ -3206,10 +3135,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>7/12/2025</t>
         </is>
@@ -3231,10 +3157,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>7/16/2025</t>
         </is>
@@ -3256,10 +3179,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>7/18/2025</t>
         </is>
@@ -3281,10 +3201,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>7/20/2025</t>
         </is>
@@ -3306,10 +3223,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D131">
-        <v>4</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>7/22/2025</t>
         </is>
@@ -3331,10 +3245,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>7/26/2025</t>
         </is>
@@ -3356,10 +3267,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>7/28/2025</t>
         </is>
@@ -3381,10 +3289,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D134">
-        <v>9</v>
-      </c>
-      <c r="E134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>7/30/2025</t>
         </is>
@@ -3406,10 +3311,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>8/8/2025</t>
         </is>
@@ -3431,10 +3333,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>8/9/2025</t>
         </is>
@@ -3456,10 +3355,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>8/10/2025</t>
         </is>
@@ -3481,10 +3377,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>8/13/2025</t>
         </is>
@@ -3506,10 +3399,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-      <c r="E139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>8/22/2025</t>
         </is>
@@ -3531,10 +3421,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>8/27/2025</t>
         </is>
@@ -3556,10 +3443,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-      <c r="E141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>8/29/2025</t>
         </is>
@@ -3573,7 +3457,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLAINS_WET</t>
+          <t>plains_wet</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3581,10 +3465,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D142">
-        <v>4</v>
-      </c>
-      <c r="E142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>9/2/2025</t>
         </is>
@@ -3598,7 +3479,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LONG_MEADOW</t>
+          <t>long_meadow</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3606,10 +3487,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D143">
-        <v>6</v>
-      </c>
-      <c r="E143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>9/6/2025</t>
         </is>
@@ -3631,10 +3509,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-      <c r="E144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>9/12/2025</t>
         </is>
@@ -3656,10 +3531,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>9/16/2025</t>
         </is>
@@ -3681,10 +3553,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D146">
-        <v>6</v>
-      </c>
-      <c r="E146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>9/18/2025</t>
         </is>
@@ -3706,10 +3575,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>9/24/2025</t>
         </is>
@@ -3731,10 +3597,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>9/25/2025</t>
         </is>
@@ -3756,10 +3619,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>9/27/2025</t>
         </is>
@@ -3781,10 +3641,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>9/28/2025</t>
         </is>
@@ -3806,10 +3663,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>9/29/2025</t>
         </is>
@@ -3831,10 +3685,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
-      <c r="E152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>9/30/2025</t>
         </is>
@@ -3856,10 +3707,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>10/3/2025</t>
         </is>
@@ -3881,10 +3729,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>10/6/2025</t>
         </is>
@@ -3906,10 +3751,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D155">
-        <v>14</v>
-      </c>
-      <c r="E155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>10/9/2025</t>
         </is>
@@ -3931,10 +3773,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D156">
-        <v>4</v>
-      </c>
-      <c r="E156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>10/23/2025</t>
         </is>
@@ -3956,10 +3795,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>10/27/2025</t>
         </is>
@@ -3981,10 +3817,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>10/29/2025</t>
         </is>
@@ -4006,10 +3839,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>10/30/2025</t>
         </is>
@@ -4031,10 +3861,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>11/4/2025</t>
         </is>
@@ -4048,7 +3875,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LEOS</t>
+          <t>leos</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4056,10 +3883,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>11/9/2025</t>
         </is>
@@ -4073,7 +3897,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PLAYGROUND</t>
+          <t>playground</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4081,10 +3905,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D162">
-        <v>11</v>
-      </c>
-      <c r="E162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>11/14/2025</t>
         </is>
@@ -4106,10 +3927,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-      <c r="E163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>11/25/2025</t>
         </is>
@@ -4131,7 +3949,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>11/30/2025</t>
         </is>
@@ -4145,7 +3963,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4153,10 +3971,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-      <c r="E165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>5/1/2025</t>
         </is>
@@ -4170,7 +3985,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4178,10 +3993,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D166">
-        <v>3</v>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>5/3/2025</t>
         </is>
@@ -4195,7 +4007,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LOWER_SUNSET</t>
+          <t>lower_sunset</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4203,10 +4015,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D167">
-        <v>4</v>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>5/6/2025</t>
         </is>
@@ -4220,7 +4029,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4228,10 +4037,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>5/10/2025</t>
         </is>
@@ -4245,7 +4051,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4253,10 +4059,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D169">
-        <v>9</v>
-      </c>
-      <c r="E169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>5/11/2025</t>
         </is>
@@ -4270,7 +4073,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4278,10 +4081,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D170">
-        <v>3</v>
-      </c>
-      <c r="E170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>5/20/2025</t>
         </is>
@@ -4295,7 +4095,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4303,10 +4103,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-      <c r="E171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>5/23/2025</t>
         </is>
@@ -4320,7 +4117,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4328,10 +4125,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D172">
-        <v>3</v>
-      </c>
-      <c r="E172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>5/27/2025</t>
         </is>
@@ -4345,7 +4139,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4353,10 +4147,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D173">
-        <v>11</v>
-      </c>
-      <c r="E173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>5/30/2025</t>
         </is>
@@ -4370,7 +4161,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4378,10 +4169,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D174">
-        <v>3</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>6/10/2025</t>
         </is>
@@ -4395,7 +4183,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LOWER_UNDERHILL</t>
+          <t>lower_underhill</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4403,10 +4191,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D175">
-        <v>3</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>6/13/2025</t>
         </is>
@@ -4420,7 +4205,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4428,10 +4213,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D176">
-        <v>3</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>6/16/2025</t>
         </is>
@@ -4445,7 +4227,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4453,10 +4235,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D177">
-        <v>6</v>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>6/19/2025</t>
         </is>
@@ -4470,7 +4249,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4478,10 +4257,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D178">
-        <v>3</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>6/25/2025</t>
         </is>
@@ -4495,7 +4271,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4503,10 +4279,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D179">
-        <v>9</v>
-      </c>
-      <c r="E179" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>6/28/2025</t>
         </is>
@@ -4520,7 +4293,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4528,10 +4301,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D180">
-        <v>3</v>
-      </c>
-      <c r="E180" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>7/7/2025</t>
         </is>
@@ -4545,7 +4315,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4553,10 +4323,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D181">
-        <v>3</v>
-      </c>
-      <c r="E181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>7/10/2025</t>
         </is>
@@ -4570,7 +4337,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4578,10 +4345,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D182">
-        <v>3</v>
-      </c>
-      <c r="E182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>7/13/2025</t>
         </is>
@@ -4595,7 +4359,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4603,10 +4367,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D183">
-        <v>14</v>
-      </c>
-      <c r="E183" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>7/16/2025</t>
         </is>
@@ -4620,7 +4381,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>LOWER_UNDERHILL</t>
+          <t>lower_underhill</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4628,10 +4389,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D184">
-        <v>4</v>
-      </c>
-      <c r="E184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>7/30/2025</t>
         </is>
@@ -4645,7 +4403,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4653,10 +4411,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D185">
-        <v>3</v>
-      </c>
-      <c r="E185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>8/3/2025</t>
         </is>
@@ -4670,7 +4425,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>UNDERHILL</t>
+          <t>underhill</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4678,10 +4433,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D186">
-        <v>10</v>
-      </c>
-      <c r="E186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>8/6/2025</t>
         </is>
@@ -4695,7 +4447,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BARBERRY_WOODS</t>
+          <t>barberry_woods</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4703,10 +4455,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D187">
-        <v>2</v>
-      </c>
-      <c r="E187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>8/16/2025</t>
         </is>
@@ -4720,7 +4469,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BULL</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4728,10 +4477,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D188">
-        <v>3</v>
-      </c>
-      <c r="E188" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>8/18/2025</t>
         </is>
@@ -4745,7 +4491,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SUNSET_FIELD</t>
+          <t>sunset_field</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4753,10 +4499,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D189">
-        <v>3</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>8/21/2025</t>
         </is>
@@ -4770,7 +4513,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4778,10 +4521,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D190">
-        <v>4</v>
-      </c>
-      <c r="E190" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>8/24/2025</t>
         </is>
@@ -4795,7 +4535,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>POND_FIELD</t>
+          <t>pond_field</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4803,10 +4543,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="E191" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>8/28/2025</t>
         </is>
@@ -4820,7 +4557,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>HORSE</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4828,10 +4565,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D192">
-        <v>6</v>
-      </c>
-      <c r="E192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>9/2/2025</t>
         </is>
@@ -4845,7 +4579,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LOWER_HOME</t>
+          <t>lower_home</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4853,10 +4587,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>9/8/2025</t>
         </is>
@@ -4870,7 +4601,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRIANGLE_LOWER</t>
+          <t>triangle_lower</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4878,10 +4609,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>9/10/2025</t>
         </is>
@@ -4895,7 +4623,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRIANGLE_UPPER</t>
+          <t>triangle_upper</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4903,10 +4631,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
-      <c r="E195" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>9/13/2025</t>
         </is>
@@ -4920,7 +4645,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>RAILROAD</t>
+          <t>railroad</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4928,10 +4653,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-      <c r="E196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>9/17/2025</t>
         </is>
@@ -4945,7 +4667,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BRIAR</t>
+          <t>briar</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4953,10 +4675,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D197">
-        <v>14</v>
-      </c>
-      <c r="E197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>9/19/2025</t>
         </is>
@@ -4970,7 +4689,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DRAINAGE</t>
+          <t>drainage</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4978,10 +4697,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D198">
-        <v>10</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>10/3/2025</t>
         </is>
@@ -4995,7 +4711,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>LOWER_BARBERRY</t>
+          <t>lower_barberry</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5003,10 +4719,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D199">
-        <v>3</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>10/13/2025</t>
         </is>
@@ -5020,7 +4733,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BARBERRY_WOODS</t>
+          <t>barberry_woods</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5028,10 +4741,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D200">
-        <v>3</v>
-      </c>
-      <c r="E200" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>10/16/2025</t>
         </is>
@@ -5045,7 +4755,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>WILSON</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5053,10 +4763,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D201">
-        <v>6</v>
-      </c>
-      <c r="E201" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>10/19/2025</t>
         </is>
@@ -5070,7 +4777,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>UNDERHILL</t>
+          <t>underhill</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5078,10 +4785,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>10/25/2025</t>
         </is>
@@ -5095,7 +4799,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>UNDERHILL_WET</t>
+          <t>underhill_wet</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5103,10 +4807,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D203">
-        <v>7</v>
-      </c>
-      <c r="E203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>10/30/2025</t>
         </is>
@@ -5120,7 +4821,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BULL</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5128,10 +4829,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>11/6/2025</t>
         </is>
@@ -5145,7 +4843,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SUNSET_HILL</t>
+          <t>sunset_hill</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5153,10 +4851,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D205">
-        <v>3</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>11/11/2025</t>
         </is>
@@ -5170,7 +4865,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>LOWER_SUNSET</t>
+          <t>lower_sunset</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5178,10 +4873,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="D206">
-        <v>7</v>
-      </c>
-      <c r="E206" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>11/14/2025</t>
         </is>
@@ -5195,7 +4887,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>WILLIAMS_WEST</t>
+          <t>williams_west</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5203,7 +4895,7 @@
           <t>day_in</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>11/21/2025</t>
         </is>
